--- a/Mitarbeitertypen und deren Sozialversicherungen.xlsx
+++ b/Mitarbeitertypen und deren Sozialversicherungen.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6D4448-7027-4C7A-B118-387C08854F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93C1D15-6867-42DF-9F4D-5A088CB0190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -620,17 +631,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">

--- a/Mitarbeitertypen und deren Sozialversicherungen.xlsx
+++ b/Mitarbeitertypen und deren Sozialversicherungen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9910DA-1A53-406D-8ABF-8964592800D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC160490-4134-4F5A-878D-C53CFFCCC1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
   <si>
     <t>krankenversichert</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>rentenversichert</t>
-  </si>
-  <si>
-    <t>Unfallversichert</t>
   </si>
   <si>
     <t>ja</t>
@@ -107,6 +104,15 @@
   <si>
     <t>freiwillige Vor-/Nach-/
 Schülerpraktika ohne Entgelt</t>
+  </si>
+  <si>
+    <t>Pauschale</t>
+  </si>
+  <si>
+    <t>keine Pauschale</t>
+  </si>
+  <si>
+    <t>unfallversichert</t>
   </si>
 </sst>
 </file>
@@ -138,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -250,6 +256,34 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -259,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -286,6 +320,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,7 +611,7 @@
   <dimension ref="B1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +622,7 @@
     <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -593,37 +633,37 @@
     <row r="2" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4"/>
       <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -646,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>4</v>
@@ -658,10 +698,10 @@
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -684,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>4</v>
@@ -696,10 +736,10 @@
         <v>4</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -713,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>2</v>
@@ -722,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>4</v>
@@ -734,10 +774,10 @@
         <v>4</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -751,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
@@ -760,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>4</v>
@@ -772,24 +812,24 @@
         <v>4</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>1</v>
@@ -798,60 +838,60 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
